--- a/Voiz_project/data/main_cluster.xlsx
+++ b/Voiz_project/data/main_cluster.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\!!! GitHub\DataCracy\myscala\Voiz_project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDC89DD3-01A7-4C84-B14D-C85A9A77B8C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA83C6A3-F6DD-4C83-BF5D-BD433FBCC346}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11400" yWindow="0" windowWidth="14415" windowHeight="10875" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="37">
   <si>
     <t>R</t>
   </si>
@@ -124,13 +125,25 @@
   </si>
   <si>
     <t>3- Thường xuyên bất thường (18 - 28  lần)</t>
+  </si>
+  <si>
+    <t>Cluster</t>
+  </si>
+  <si>
+    <t>Loyal</t>
+  </si>
+  <si>
+    <t>Potential</t>
+  </si>
+  <si>
+    <t>New User</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -162,8 +175,16 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="55">
+  <fills count="59">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -488,8 +509,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="16">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -680,11 +725,91 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -848,60 +973,6 @@
     <xf numFmtId="0" fontId="3" fillId="54" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="1" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="36" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="36" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="36" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="46" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="46" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="46" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="1" fillId="4" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -914,6 +985,165 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="1" fillId="4" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="1" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="46" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="46" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="46" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="36" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="36" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="36" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="55" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="55" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="55" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="55" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="55" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="55" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="55" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="55" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="55" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="56" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="56" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="56" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="56" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="56" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="56" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="56" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="56" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="56" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="57" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="57" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="57" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="57" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="57" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="57" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="57" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="57" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="57" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="58" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="58" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="58" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="58" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="58" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="58" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1197,22 +1427,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" style="76" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" style="76" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" style="76" customWidth="1"/>
-    <col min="4" max="10" width="9.140625" style="76"/>
-    <col min="11" max="11" width="13.5703125" style="76" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="76"/>
+    <col min="1" max="1" width="11.85546875" style="58" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" style="58" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" style="58" customWidth="1"/>
+    <col min="4" max="10" width="9.140625" style="58"/>
+    <col min="11" max="11" width="13.5703125" style="58" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="58"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="75" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="75" t="s">
+    <row r="1" spans="1:17" s="57" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="57" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1252,10 +1482,10 @@
       <c r="L4" s="5"/>
     </row>
     <row r="5" spans="1:17" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="56" t="s">
+      <c r="A5" s="69" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="56" t="s">
+      <c r="B5" s="69" t="s">
         <v>25</v>
       </c>
       <c r="C5" s="6" t="s">
@@ -1282,17 +1512,17 @@
       <c r="J5" s="10">
         <v>1</v>
       </c>
-      <c r="K5" s="58" t="s">
+      <c r="K5" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="61">
+      <c r="L5" s="66">
         <v>4.24E-2</v>
       </c>
-      <c r="M5" s="77"/>
+      <c r="M5" s="59"/>
     </row>
     <row r="6" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="55"/>
-      <c r="B6" s="55"/>
+      <c r="A6" s="70"/>
+      <c r="B6" s="70"/>
       <c r="C6" s="6" t="s">
         <v>14</v>
       </c>
@@ -1317,16 +1547,16 @@
       <c r="J6" s="16">
         <v>3</v>
       </c>
-      <c r="K6" s="59"/>
-      <c r="L6" s="62"/>
-      <c r="M6" s="77"/>
-      <c r="Q6" s="76" t="s">
+      <c r="K6" s="64"/>
+      <c r="L6" s="67"/>
+      <c r="M6" s="59"/>
+      <c r="Q6" s="58" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="55"/>
-      <c r="B7" s="57"/>
+      <c r="A7" s="70"/>
+      <c r="B7" s="71"/>
       <c r="C7" s="6" t="s">
         <v>9</v>
       </c>
@@ -1351,16 +1581,16 @@
       <c r="J7" s="10">
         <v>1</v>
       </c>
-      <c r="K7" s="60"/>
-      <c r="L7" s="63"/>
-      <c r="M7" s="77"/>
-      <c r="Q7" s="76" t="s">
+      <c r="K7" s="65"/>
+      <c r="L7" s="68"/>
+      <c r="M7" s="59"/>
+      <c r="Q7" s="58" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="55"/>
-      <c r="B8" s="72" t="s">
+      <c r="A8" s="70"/>
+      <c r="B8" s="60" t="s">
         <v>28</v>
       </c>
       <c r="C8" s="6" t="s">
@@ -1387,20 +1617,20 @@
       <c r="J8" s="16">
         <v>3</v>
       </c>
-      <c r="K8" s="58" t="s">
+      <c r="K8" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="L8" s="61">
+      <c r="L8" s="66">
         <v>4.24E-2</v>
       </c>
-      <c r="M8" s="77"/>
-      <c r="Q8" s="76" t="s">
+      <c r="M8" s="59"/>
+      <c r="Q8" s="58" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="55"/>
-      <c r="B9" s="64"/>
+      <c r="A9" s="70"/>
+      <c r="B9" s="61"/>
       <c r="C9" s="6" t="s">
         <v>14</v>
       </c>
@@ -1425,13 +1655,13 @@
       <c r="J9" s="19">
         <v>2</v>
       </c>
-      <c r="K9" s="59"/>
-      <c r="L9" s="62"/>
-      <c r="M9" s="77"/>
+      <c r="K9" s="64"/>
+      <c r="L9" s="67"/>
+      <c r="M9" s="59"/>
     </row>
     <row r="10" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="55"/>
-      <c r="B10" s="65"/>
+      <c r="A10" s="70"/>
+      <c r="B10" s="62"/>
       <c r="C10" s="6" t="s">
         <v>9</v>
       </c>
@@ -1456,13 +1686,13 @@
       <c r="J10" s="21">
         <v>0</v>
       </c>
-      <c r="K10" s="60"/>
-      <c r="L10" s="63"/>
-      <c r="M10" s="77"/>
+      <c r="K10" s="65"/>
+      <c r="L10" s="68"/>
+      <c r="M10" s="59"/>
     </row>
     <row r="11" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="55"/>
-      <c r="B11" s="72" t="s">
+      <c r="A11" s="70"/>
+      <c r="B11" s="60" t="s">
         <v>26</v>
       </c>
       <c r="C11" s="6" t="s">
@@ -1489,17 +1719,17 @@
       <c r="J11" s="25">
         <v>10</v>
       </c>
-      <c r="K11" s="58" t="s">
+      <c r="K11" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="L11" s="61">
+      <c r="L11" s="66">
         <v>0.2712</v>
       </c>
-      <c r="M11" s="77"/>
+      <c r="M11" s="59"/>
     </row>
     <row r="12" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="55"/>
-      <c r="B12" s="64"/>
+      <c r="A12" s="70"/>
+      <c r="B12" s="61"/>
       <c r="C12" s="6" t="s">
         <v>14</v>
       </c>
@@ -1524,13 +1754,13 @@
       <c r="J12" s="25">
         <v>10</v>
       </c>
-      <c r="K12" s="59"/>
-      <c r="L12" s="62"/>
-      <c r="M12" s="77"/>
+      <c r="K12" s="64"/>
+      <c r="L12" s="67"/>
+      <c r="M12" s="59"/>
     </row>
     <row r="13" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="55"/>
-      <c r="B13" s="65"/>
+      <c r="A13" s="70"/>
+      <c r="B13" s="62"/>
       <c r="C13" s="6" t="s">
         <v>9</v>
       </c>
@@ -1555,13 +1785,13 @@
       <c r="J13" s="31">
         <v>12</v>
       </c>
-      <c r="K13" s="60"/>
-      <c r="L13" s="63"/>
-      <c r="M13" s="77"/>
+      <c r="K13" s="65"/>
+      <c r="L13" s="68"/>
+      <c r="M13" s="59"/>
     </row>
     <row r="14" spans="1:17" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="55"/>
-      <c r="B14" s="56" t="s">
+      <c r="A14" s="70"/>
+      <c r="B14" s="69" t="s">
         <v>27</v>
       </c>
       <c r="C14" s="6" t="s">
@@ -1588,17 +1818,17 @@
       <c r="J14" s="25">
         <v>10</v>
       </c>
-      <c r="K14" s="58" t="s">
+      <c r="K14" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="L14" s="61">
+      <c r="L14" s="66">
         <v>0.2712</v>
       </c>
-      <c r="M14" s="77"/>
+      <c r="M14" s="59"/>
     </row>
     <row r="15" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="55"/>
-      <c r="B15" s="55"/>
+      <c r="A15" s="70"/>
+      <c r="B15" s="70"/>
       <c r="C15" s="6" t="s">
         <v>14</v>
       </c>
@@ -1623,13 +1853,13 @@
       <c r="J15" s="25">
         <v>10</v>
       </c>
-      <c r="K15" s="59"/>
-      <c r="L15" s="62"/>
-      <c r="M15" s="77"/>
+      <c r="K15" s="64"/>
+      <c r="L15" s="67"/>
+      <c r="M15" s="59"/>
     </row>
     <row r="16" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="57"/>
-      <c r="B16" s="57"/>
+      <c r="A16" s="71"/>
+      <c r="B16" s="71"/>
       <c r="C16" s="6" t="s">
         <v>9</v>
       </c>
@@ -1654,15 +1884,15 @@
       <c r="J16" s="31">
         <v>12</v>
       </c>
-      <c r="K16" s="60"/>
-      <c r="L16" s="63"/>
-      <c r="M16" s="77"/>
+      <c r="K16" s="65"/>
+      <c r="L16" s="68"/>
+      <c r="M16" s="59"/>
     </row>
     <row r="17" spans="1:12" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="56" t="s">
+      <c r="A17" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="56" t="s">
+      <c r="B17" s="69" t="s">
         <v>25</v>
       </c>
       <c r="C17" s="6" t="s">
@@ -1689,16 +1919,16 @@
       <c r="J17" s="10">
         <v>1</v>
       </c>
-      <c r="K17" s="66" t="s">
+      <c r="K17" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="L17" s="61">
+      <c r="L17" s="66">
         <v>4.24E-2</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="55"/>
-      <c r="B18" s="55"/>
+      <c r="A18" s="70"/>
+      <c r="B18" s="70"/>
       <c r="C18" s="6" t="s">
         <v>14</v>
       </c>
@@ -1723,12 +1953,12 @@
       <c r="J18" s="19">
         <v>2</v>
       </c>
-      <c r="K18" s="67"/>
-      <c r="L18" s="62"/>
+      <c r="K18" s="76"/>
+      <c r="L18" s="67"/>
     </row>
     <row r="19" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="55"/>
-      <c r="B19" s="57"/>
+      <c r="A19" s="70"/>
+      <c r="B19" s="71"/>
       <c r="C19" s="6" t="s">
         <v>9</v>
       </c>
@@ -1753,12 +1983,12 @@
       <c r="J19" s="19">
         <v>2</v>
       </c>
-      <c r="K19" s="68"/>
-      <c r="L19" s="63"/>
+      <c r="K19" s="77"/>
+      <c r="L19" s="68"/>
     </row>
     <row r="20" spans="1:12" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="55"/>
-      <c r="B20" s="72" t="s">
+      <c r="A20" s="70"/>
+      <c r="B20" s="60" t="s">
         <v>28</v>
       </c>
       <c r="C20" s="6" t="s">
@@ -1785,16 +2015,16 @@
       <c r="J20" s="10">
         <v>1</v>
       </c>
-      <c r="K20" s="66" t="s">
+      <c r="K20" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="L20" s="61">
+      <c r="L20" s="66">
         <v>0.2712</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="55"/>
-      <c r="B21" s="64"/>
+      <c r="A21" s="70"/>
+      <c r="B21" s="61"/>
       <c r="C21" s="6" t="s">
         <v>14</v>
       </c>
@@ -1819,12 +2049,12 @@
       <c r="J21" s="10">
         <v>1</v>
       </c>
-      <c r="K21" s="67"/>
-      <c r="L21" s="62"/>
+      <c r="K21" s="76"/>
+      <c r="L21" s="67"/>
     </row>
     <row r="22" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="55"/>
-      <c r="B22" s="65"/>
+      <c r="A22" s="70"/>
+      <c r="B22" s="62"/>
       <c r="C22" s="6" t="s">
         <v>9</v>
       </c>
@@ -1849,12 +2079,12 @@
       <c r="J22" s="10">
         <v>1</v>
       </c>
-      <c r="K22" s="67"/>
-      <c r="L22" s="62"/>
+      <c r="K22" s="76"/>
+      <c r="L22" s="67"/>
     </row>
     <row r="23" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="55"/>
-      <c r="B23" s="72" t="s">
+      <c r="A23" s="70"/>
+      <c r="B23" s="60" t="s">
         <v>26</v>
       </c>
       <c r="C23" s="6" t="s">
@@ -1867,12 +2097,12 @@
       <c r="H23" s="8"/>
       <c r="I23" s="8"/>
       <c r="J23" s="10"/>
-      <c r="K23" s="67"/>
-      <c r="L23" s="62"/>
+      <c r="K23" s="76"/>
+      <c r="L23" s="67"/>
     </row>
     <row r="24" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="55"/>
-      <c r="B24" s="64"/>
+      <c r="A24" s="70"/>
+      <c r="B24" s="61"/>
       <c r="C24" s="6" t="s">
         <v>14</v>
       </c>
@@ -1883,12 +2113,12 @@
       <c r="H24" s="8"/>
       <c r="I24" s="8"/>
       <c r="J24" s="10"/>
-      <c r="K24" s="67"/>
-      <c r="L24" s="62"/>
+      <c r="K24" s="76"/>
+      <c r="L24" s="67"/>
     </row>
     <row r="25" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="55"/>
-      <c r="B25" s="65"/>
+      <c r="A25" s="70"/>
+      <c r="B25" s="62"/>
       <c r="C25" s="6" t="s">
         <v>9</v>
       </c>
@@ -1899,12 +2129,12 @@
       <c r="H25" s="8"/>
       <c r="I25" s="8"/>
       <c r="J25" s="10"/>
-      <c r="K25" s="67"/>
-      <c r="L25" s="62"/>
+      <c r="K25" s="76"/>
+      <c r="L25" s="67"/>
     </row>
     <row r="26" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="55"/>
-      <c r="B26" s="56" t="s">
+      <c r="A26" s="70"/>
+      <c r="B26" s="69" t="s">
         <v>27</v>
       </c>
       <c r="C26" s="6" t="s">
@@ -1931,12 +2161,12 @@
       <c r="J26" s="41">
         <v>16</v>
       </c>
-      <c r="K26" s="67"/>
-      <c r="L26" s="62"/>
+      <c r="K26" s="76"/>
+      <c r="L26" s="67"/>
     </row>
     <row r="27" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="55"/>
-      <c r="B27" s="55"/>
+      <c r="A27" s="70"/>
+      <c r="B27" s="70"/>
       <c r="C27" s="6" t="s">
         <v>14</v>
       </c>
@@ -1961,12 +2191,12 @@
       <c r="J27" s="43">
         <v>11</v>
       </c>
-      <c r="K27" s="67"/>
-      <c r="L27" s="62"/>
+      <c r="K27" s="76"/>
+      <c r="L27" s="67"/>
     </row>
     <row r="28" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="57"/>
-      <c r="B28" s="57"/>
+      <c r="A28" s="71"/>
+      <c r="B28" s="71"/>
       <c r="C28" s="6" t="s">
         <v>9</v>
       </c>
@@ -1991,14 +2221,14 @@
       <c r="J28" s="19">
         <v>2</v>
       </c>
-      <c r="K28" s="68"/>
-      <c r="L28" s="63"/>
+      <c r="K28" s="77"/>
+      <c r="L28" s="68"/>
     </row>
     <row r="29" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="56" t="s">
+      <c r="A29" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="B29" s="56" t="s">
+      <c r="B29" s="69" t="s">
         <v>25</v>
       </c>
       <c r="C29" s="6" t="s">
@@ -2025,16 +2255,16 @@
       <c r="J29" s="21">
         <v>0</v>
       </c>
-      <c r="K29" s="69" t="s">
+      <c r="K29" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="L29" s="61">
+      <c r="L29" s="66">
         <v>6.7799999999999999E-2</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="55"/>
-      <c r="B30" s="55"/>
+      <c r="A30" s="70"/>
+      <c r="B30" s="70"/>
       <c r="C30" s="6" t="s">
         <v>14</v>
       </c>
@@ -2059,12 +2289,12 @@
       <c r="J30" s="48">
         <v>4</v>
       </c>
-      <c r="K30" s="70"/>
-      <c r="L30" s="62"/>
+      <c r="K30" s="73"/>
+      <c r="L30" s="67"/>
     </row>
     <row r="31" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="55"/>
-      <c r="B31" s="57"/>
+      <c r="A31" s="70"/>
+      <c r="B31" s="71"/>
       <c r="C31" s="6" t="s">
         <v>9</v>
       </c>
@@ -2089,12 +2319,12 @@
       <c r="J31" s="21">
         <v>0</v>
       </c>
-      <c r="K31" s="70"/>
-      <c r="L31" s="62"/>
+      <c r="K31" s="73"/>
+      <c r="L31" s="67"/>
     </row>
     <row r="32" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="55"/>
-      <c r="B32" s="72" t="s">
+      <c r="A32" s="70"/>
+      <c r="B32" s="60" t="s">
         <v>28</v>
       </c>
       <c r="C32" s="6" t="s">
@@ -2121,12 +2351,12 @@
       <c r="J32" s="19">
         <v>2</v>
       </c>
-      <c r="K32" s="70"/>
-      <c r="L32" s="62"/>
+      <c r="K32" s="73"/>
+      <c r="L32" s="67"/>
     </row>
     <row r="33" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="55"/>
-      <c r="B33" s="64"/>
+      <c r="A33" s="70"/>
+      <c r="B33" s="61"/>
       <c r="C33" s="6" t="s">
         <v>14</v>
       </c>
@@ -2151,12 +2381,12 @@
       <c r="J33" s="10">
         <v>1</v>
       </c>
-      <c r="K33" s="70"/>
-      <c r="L33" s="62"/>
+      <c r="K33" s="73"/>
+      <c r="L33" s="67"/>
     </row>
     <row r="34" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="55"/>
-      <c r="B34" s="65"/>
+      <c r="A34" s="70"/>
+      <c r="B34" s="62"/>
       <c r="C34" s="6" t="s">
         <v>9</v>
       </c>
@@ -2181,12 +2411,12 @@
       <c r="J34" s="10">
         <v>1</v>
       </c>
-      <c r="K34" s="71"/>
-      <c r="L34" s="63"/>
+      <c r="K34" s="74"/>
+      <c r="L34" s="68"/>
     </row>
     <row r="35" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="55"/>
-      <c r="B35" s="72" t="s">
+      <c r="A35" s="70"/>
+      <c r="B35" s="60" t="s">
         <v>26</v>
       </c>
       <c r="C35" s="6" t="s">
@@ -2199,12 +2429,12 @@
       <c r="H35" s="8"/>
       <c r="I35" s="8"/>
       <c r="J35" s="10"/>
-      <c r="K35" s="74"/>
-      <c r="L35" s="73"/>
+      <c r="K35" s="56"/>
+      <c r="L35" s="55"/>
     </row>
     <row r="36" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="55"/>
-      <c r="B36" s="64"/>
+      <c r="A36" s="70"/>
+      <c r="B36" s="61"/>
       <c r="C36" s="6" t="s">
         <v>14</v>
       </c>
@@ -2215,12 +2445,12 @@
       <c r="H36" s="8"/>
       <c r="I36" s="8"/>
       <c r="J36" s="10"/>
-      <c r="K36" s="74"/>
-      <c r="L36" s="73"/>
+      <c r="K36" s="56"/>
+      <c r="L36" s="55"/>
     </row>
     <row r="37" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="55"/>
-      <c r="B37" s="65"/>
+      <c r="A37" s="70"/>
+      <c r="B37" s="62"/>
       <c r="C37" s="6" t="s">
         <v>9</v>
       </c>
@@ -2231,12 +2461,12 @@
       <c r="H37" s="8"/>
       <c r="I37" s="8"/>
       <c r="J37" s="10"/>
-      <c r="K37" s="74"/>
-      <c r="L37" s="73"/>
+      <c r="K37" s="56"/>
+      <c r="L37" s="55"/>
     </row>
     <row r="38" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="55"/>
-      <c r="B38" s="56" t="s">
+      <c r="A38" s="70"/>
+      <c r="B38" s="69" t="s">
         <v>27</v>
       </c>
       <c r="C38" s="6" t="s">
@@ -2263,16 +2493,16 @@
       <c r="J38" s="25">
         <v>10</v>
       </c>
-      <c r="K38" s="69" t="s">
+      <c r="K38" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="L38" s="61">
+      <c r="L38" s="66">
         <v>0.26269999999999999</v>
       </c>
     </row>
     <row r="39" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="55"/>
-      <c r="B39" s="55"/>
+      <c r="A39" s="70"/>
+      <c r="B39" s="70"/>
       <c r="C39" s="6" t="s">
         <v>14</v>
       </c>
@@ -2297,12 +2527,12 @@
       <c r="J39" s="53">
         <v>9</v>
       </c>
-      <c r="K39" s="70"/>
-      <c r="L39" s="62"/>
+      <c r="K39" s="73"/>
+      <c r="L39" s="67"/>
     </row>
     <row r="40" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="57"/>
-      <c r="B40" s="57"/>
+      <c r="A40" s="71"/>
+      <c r="B40" s="71"/>
       <c r="C40" s="6" t="s">
         <v>9</v>
       </c>
@@ -2327,14 +2557,14 @@
       <c r="J40" s="31">
         <v>12</v>
       </c>
-      <c r="K40" s="71"/>
-      <c r="L40" s="63"/>
+      <c r="K40" s="74"/>
+      <c r="L40" s="68"/>
     </row>
     <row r="41" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="56" t="s">
+      <c r="A41" s="69" t="s">
         <v>32</v>
       </c>
-      <c r="B41" s="56" t="s">
+      <c r="B41" s="69" t="s">
         <v>25</v>
       </c>
       <c r="C41" s="6" t="s">
@@ -2361,16 +2591,16 @@
       <c r="J41" s="21">
         <v>0</v>
       </c>
-      <c r="K41" s="69" t="s">
+      <c r="K41" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="L41" s="61">
+      <c r="L41" s="66">
         <v>6.7799999999999999E-2</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="55"/>
-      <c r="B42" s="55"/>
+      <c r="A42" s="70"/>
+      <c r="B42" s="70"/>
       <c r="C42" s="6" t="s">
         <v>14</v>
       </c>
@@ -2395,12 +2625,12 @@
       <c r="J42" s="48">
         <v>4</v>
       </c>
-      <c r="K42" s="70"/>
-      <c r="L42" s="62"/>
+      <c r="K42" s="73"/>
+      <c r="L42" s="67"/>
     </row>
     <row r="43" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="55"/>
-      <c r="B43" s="57"/>
+      <c r="A43" s="70"/>
+      <c r="B43" s="71"/>
       <c r="C43" s="6" t="s">
         <v>9</v>
       </c>
@@ -2425,12 +2655,12 @@
       <c r="J43" s="21">
         <v>0</v>
       </c>
-      <c r="K43" s="70"/>
-      <c r="L43" s="62"/>
+      <c r="K43" s="73"/>
+      <c r="L43" s="67"/>
     </row>
     <row r="44" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="55"/>
-      <c r="B44" s="72" t="s">
+      <c r="A44" s="70"/>
+      <c r="B44" s="60" t="s">
         <v>28</v>
       </c>
       <c r="C44" s="6" t="s">
@@ -2443,12 +2673,12 @@
       <c r="H44" s="20"/>
       <c r="I44" s="20"/>
       <c r="J44" s="21"/>
-      <c r="K44" s="70"/>
-      <c r="L44" s="62"/>
+      <c r="K44" s="73"/>
+      <c r="L44" s="67"/>
     </row>
     <row r="45" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="55"/>
-      <c r="B45" s="64"/>
+      <c r="A45" s="70"/>
+      <c r="B45" s="61"/>
       <c r="C45" s="6" t="s">
         <v>14</v>
       </c>
@@ -2459,12 +2689,12 @@
       <c r="H45" s="20"/>
       <c r="I45" s="20"/>
       <c r="J45" s="21"/>
-      <c r="K45" s="70"/>
-      <c r="L45" s="62"/>
+      <c r="K45" s="73"/>
+      <c r="L45" s="67"/>
     </row>
     <row r="46" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="55"/>
-      <c r="B46" s="65"/>
+      <c r="A46" s="70"/>
+      <c r="B46" s="62"/>
       <c r="C46" s="6" t="s">
         <v>9</v>
       </c>
@@ -2475,12 +2705,12 @@
       <c r="H46" s="20"/>
       <c r="I46" s="20"/>
       <c r="J46" s="21"/>
-      <c r="K46" s="70"/>
-      <c r="L46" s="62"/>
+      <c r="K46" s="73"/>
+      <c r="L46" s="67"/>
     </row>
     <row r="47" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="55"/>
-      <c r="B47" s="72" t="s">
+      <c r="A47" s="70"/>
+      <c r="B47" s="60" t="s">
         <v>26</v>
       </c>
       <c r="C47" s="6" t="s">
@@ -2507,12 +2737,12 @@
       <c r="J47" s="19">
         <v>2</v>
       </c>
-      <c r="K47" s="70"/>
-      <c r="L47" s="62"/>
+      <c r="K47" s="73"/>
+      <c r="L47" s="67"/>
     </row>
     <row r="48" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="55"/>
-      <c r="B48" s="64"/>
+      <c r="A48" s="70"/>
+      <c r="B48" s="61"/>
       <c r="C48" s="6" t="s">
         <v>14</v>
       </c>
@@ -2537,12 +2767,12 @@
       <c r="J48" s="10">
         <v>1</v>
       </c>
-      <c r="K48" s="70"/>
-      <c r="L48" s="62"/>
+      <c r="K48" s="73"/>
+      <c r="L48" s="67"/>
     </row>
     <row r="49" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="55"/>
-      <c r="B49" s="65"/>
+      <c r="A49" s="70"/>
+      <c r="B49" s="62"/>
       <c r="C49" s="6" t="s">
         <v>9</v>
       </c>
@@ -2567,12 +2797,12 @@
       <c r="J49" s="10">
         <v>1</v>
       </c>
-      <c r="K49" s="71"/>
-      <c r="L49" s="63"/>
+      <c r="K49" s="74"/>
+      <c r="L49" s="68"/>
     </row>
     <row r="50" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="55"/>
-      <c r="B50" s="56" t="s">
+      <c r="A50" s="70"/>
+      <c r="B50" s="69" t="s">
         <v>27</v>
       </c>
       <c r="C50" s="6" t="s">
@@ -2599,16 +2829,16 @@
       <c r="J50" s="25">
         <v>10</v>
       </c>
-      <c r="K50" s="69" t="s">
+      <c r="K50" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="L50" s="61">
+      <c r="L50" s="66">
         <v>0.26269999999999999</v>
       </c>
     </row>
     <row r="51" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="55"/>
-      <c r="B51" s="55"/>
+      <c r="A51" s="70"/>
+      <c r="B51" s="70"/>
       <c r="C51" s="6" t="s">
         <v>14</v>
       </c>
@@ -2633,12 +2863,12 @@
       <c r="J51" s="53">
         <v>9</v>
       </c>
-      <c r="K51" s="70"/>
-      <c r="L51" s="62"/>
+      <c r="K51" s="73"/>
+      <c r="L51" s="67"/>
     </row>
     <row r="52" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="57"/>
-      <c r="B52" s="57"/>
+      <c r="A52" s="71"/>
+      <c r="B52" s="71"/>
       <c r="C52" s="6" t="s">
         <v>9</v>
       </c>
@@ -2663,42 +2893,11 @@
       <c r="J52" s="31">
         <v>12</v>
       </c>
-      <c r="K52" s="71"/>
-      <c r="L52" s="63"/>
+      <c r="K52" s="74"/>
+      <c r="L52" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="M5:M16"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="K11:K13"/>
-    <mergeCell ref="L11:L13"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="A41:A52"/>
-    <mergeCell ref="B41:B43"/>
-    <mergeCell ref="K41:K49"/>
-    <mergeCell ref="L41:L49"/>
-    <mergeCell ref="B47:B49"/>
-    <mergeCell ref="B50:B52"/>
-    <mergeCell ref="K50:K52"/>
-    <mergeCell ref="L50:L52"/>
-    <mergeCell ref="A29:A40"/>
-    <mergeCell ref="B29:B31"/>
-    <mergeCell ref="K29:K34"/>
-    <mergeCell ref="L29:L34"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="B38:B40"/>
-    <mergeCell ref="K38:K40"/>
-    <mergeCell ref="L38:L40"/>
-    <mergeCell ref="A17:A28"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="K17:K19"/>
-    <mergeCell ref="L17:L19"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="K20:K28"/>
-    <mergeCell ref="L20:L28"/>
-    <mergeCell ref="B26:B28"/>
     <mergeCell ref="A5:A16"/>
     <mergeCell ref="B5:B7"/>
     <mergeCell ref="K5:K7"/>
@@ -2709,8 +2908,229 @@
     <mergeCell ref="B14:B16"/>
     <mergeCell ref="K14:K16"/>
     <mergeCell ref="L14:L16"/>
+    <mergeCell ref="A17:A28"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="K17:K19"/>
+    <mergeCell ref="L17:L19"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="K20:K28"/>
+    <mergeCell ref="L20:L28"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="L29:L34"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="B38:B40"/>
+    <mergeCell ref="K38:K40"/>
+    <mergeCell ref="L38:L40"/>
+    <mergeCell ref="L41:L49"/>
+    <mergeCell ref="B47:B49"/>
+    <mergeCell ref="B50:B52"/>
+    <mergeCell ref="K50:K52"/>
+    <mergeCell ref="L50:L52"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="A41:A52"/>
+    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="K41:K49"/>
+    <mergeCell ref="A29:A40"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="K29:K34"/>
+    <mergeCell ref="M5:M16"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="K11:K13"/>
+    <mergeCell ref="L11:L13"/>
+    <mergeCell ref="B23:B25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07980F9E-7F9C-4A12-A10E-71FBCA0A6199}">
+  <dimension ref="A1:E15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="78"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="79" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="79" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="79" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="79" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="79"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="81">
+        <v>2</v>
+      </c>
+      <c r="B2" s="82">
+        <v>2</v>
+      </c>
+      <c r="C2" s="82">
+        <v>3</v>
+      </c>
+      <c r="D2" s="82">
+        <v>8</v>
+      </c>
+      <c r="E2" s="83" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="84"/>
+      <c r="B3" s="80"/>
+      <c r="C3" s="80">
+        <v>2</v>
+      </c>
+      <c r="D3" s="80"/>
+      <c r="E3" s="85"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="84"/>
+      <c r="B4" s="80">
+        <v>1</v>
+      </c>
+      <c r="C4" s="80">
+        <v>3</v>
+      </c>
+      <c r="D4" s="80"/>
+      <c r="E4" s="85"/>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="86"/>
+      <c r="B5" s="87"/>
+      <c r="C5" s="87">
+        <v>2</v>
+      </c>
+      <c r="D5" s="87"/>
+      <c r="E5" s="88"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="89"/>
+      <c r="B6" s="90">
+        <v>3</v>
+      </c>
+      <c r="C6" s="90">
+        <v>1</v>
+      </c>
+      <c r="D6" s="90">
+        <v>7</v>
+      </c>
+      <c r="E6" s="91" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="92"/>
+      <c r="B7" s="93"/>
+      <c r="C7" s="93">
+        <v>0</v>
+      </c>
+      <c r="D7" s="93"/>
+      <c r="E7" s="94"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="92"/>
+      <c r="B8" s="93">
+        <v>2</v>
+      </c>
+      <c r="C8" s="93">
+        <v>1</v>
+      </c>
+      <c r="D8" s="93"/>
+      <c r="E8" s="94"/>
+    </row>
+    <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="95"/>
+      <c r="B9" s="96"/>
+      <c r="C9" s="96">
+        <v>0</v>
+      </c>
+      <c r="D9" s="96"/>
+      <c r="E9" s="97"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="98"/>
+      <c r="B10" s="99">
+        <v>3</v>
+      </c>
+      <c r="C10" s="99">
+        <v>0</v>
+      </c>
+      <c r="D10" s="99"/>
+      <c r="E10" s="100" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="101"/>
+      <c r="B11" s="102">
+        <v>2</v>
+      </c>
+      <c r="C11" s="102">
+        <v>0</v>
+      </c>
+      <c r="D11" s="102"/>
+      <c r="E11" s="103"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="101"/>
+      <c r="B12" s="102">
+        <v>1</v>
+      </c>
+      <c r="C12" s="102">
+        <v>0</v>
+      </c>
+      <c r="D12" s="102"/>
+      <c r="E12" s="103"/>
+    </row>
+    <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="104"/>
+      <c r="B13" s="105"/>
+      <c r="C13" s="105">
+        <v>1</v>
+      </c>
+      <c r="D13" s="105"/>
+      <c r="E13" s="106"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="107"/>
+      <c r="B14" s="108">
+        <v>0</v>
+      </c>
+      <c r="C14" s="108">
+        <v>1</v>
+      </c>
+      <c r="D14" s="108"/>
+      <c r="E14" s="109"/>
+    </row>
+    <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="110"/>
+      <c r="B15" s="111">
+        <v>0</v>
+      </c>
+      <c r="C15" s="111">
+        <v>0</v>
+      </c>
+      <c r="D15" s="111"/>
+      <c r="E15" s="112"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>